--- a/DigitalLearningSolutions.Data.Tests/TestData/ActivityDataDownloadTest.xlsx
+++ b/DigitalLearningSolutions.Data.Tests/TestData/ActivityDataDownloadTest.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8232"/>
   </bookViews>
   <sheets>
-    <sheet name="UsageStats" sheetId="2" r:id="rId1"/>
+    <sheet name="Usage Statistics" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/DigitalLearningSolutions.Data.Tests/TestData/ActivityDataDownloadTest.xlsx
+++ b/DigitalLearningSolutions.Data.Tests/TestData/ActivityDataDownloadTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Period</t>
   </si>
@@ -31,6 +31,45 @@
   </si>
   <si>
     <t>Evaluations</t>
+  </si>
+  <si>
+    <t>01/09/2020 to 30/09/2020</t>
+  </si>
+  <si>
+    <t>01/09/2021 to 30/09/2021</t>
+  </si>
+  <si>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t>01/11/2020</t>
+  </si>
+  <si>
+    <t>01/12/2020</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>01/02/2021</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>01/05/2021</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
   </si>
 </sst>
 </file>
@@ -390,7 +429,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -416,8 +455,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
-        <v>44075</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -430,8 +469,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
-        <v>44105</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -444,8 +483,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
-        <v>44136</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -458,8 +497,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
-        <v>44166</v>
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -472,8 +511,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
-        <v>44197</v>
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -486,8 +525,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
-        <v>44228</v>
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -500,8 +539,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
-        <v>44256</v>
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -514,8 +553,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
-        <v>44287</v>
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -528,8 +567,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
-        <v>44317</v>
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -542,8 +581,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
-        <v>44348</v>
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -556,8 +595,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>44378</v>
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -570,8 +609,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
-        <v>44409</v>
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -584,8 +623,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
-        <v>44440</v>
+      <c r="A14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B14">
         <v>0</v>
